--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -15,12 +15,12 @@
     <definedName name="_ftn1" localSheetId="0">study!$K$5</definedName>
     <definedName name="_ftnref1" localSheetId="0">study!$K$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>title.de</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Educational paths of school leavers with a higher education entrance qualification - Panel Study of School Leavers with a Higher Education Entrance Qualification 2008</t>
   </si>
   <si>
-    <t>Heine, C., Quast, H., Spangenberg, H., Lörz, M., Scheller, P. &amp; Willich, J. (2014): Educational paths of school leavers with a higher education entrance qualification - DZHW Panel Study of School Leavers with a Higher Education Entrance Qualification 2008. Edited by Daniel, A., Hoffstätter, U., Huß, B. &amp; Scheller, P., doi: 10.21249/DZHW:gsl2008:1.0.0, dataset, released 2017. Hannover: FDZ-DZHW.</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>Method Report</t>
   </si>
   <si>
-    <t>Daten- und Methodenbericht zum Studienberechtigtenpanel 2008</t>
-  </si>
-  <si>
     <t>Mareike</t>
   </si>
   <si>
@@ -200,13 +194,16 @@
   </si>
   <si>
     <t>Daten- und Methodenbericht</t>
+  </si>
+  <si>
+    <t>Daten- und Methodenbericht zu den Erhebungen des Studienberechtigtenjahrgangs 2008 (1. bis 3. Befragungswelle). Version 1.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -234,12 +231,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -275,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -288,7 +279,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -595,7 +585,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +671,7 @@
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -705,9 +695,7 @@
       <c r="K2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="L2" s="3"/>
       <c r="M2" s="1" t="s">
         <v>40</v>
       </c>
@@ -780,7 +768,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -824,7 +812,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,16 +828,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -858,30 +846,30 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_ftn1" localSheetId="0">study!$K$5</definedName>
     <definedName name="_ftnref1" localSheetId="0">study!$K$2</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -58,12 +58,6 @@
     <t>citationHint.en</t>
   </si>
   <si>
-    <t>Deutsches Zentrum für Hochschul- und Wissenschaftsforschung</t>
-  </si>
-  <si>
-    <t>Bundesministerium für Bildung und Forschung</t>
-  </si>
-  <si>
     <t>DZHW-Studienberechtigtenbefragungen</t>
   </si>
   <si>
@@ -190,26 +184,39 @@
     <t>Mareike</t>
   </si>
   <si>
-    <t xml:space="preserve">Data and Methods Report on the Panel Study of School Leavers </t>
-  </si>
-  <si>
     <t>Daten- und Methodenbericht</t>
   </si>
   <si>
     <t>Daten- und Methodenbericht zu den Erhebungen des Studienberechtigtenjahrgangs 2008 (1. bis 3. Befragungswelle). Version 1.0.0</t>
+  </si>
+  <si>
+    <t>Bundesministerium für Bildung und Forschung (BMBF)</t>
+  </si>
+  <si>
+    <t>Deutsches Zentrum für Hochschul- und Wissenschaftsforschung (DZHW)</t>
+  </si>
+  <si>
+    <t>Data and methods report for the surveys on School Leavers with a Higher Education Entrance Qualification of the year 2008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -232,8 +239,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,14 +259,8 @@
         <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -261,25 +268,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Erklärender Text 2" xfId="1"/>
@@ -582,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,65 +679,68 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="286.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -733,69 +766,69 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,10 +842,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,56 +854,59 @@
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_ftn1" localSheetId="0">study!$K$5</definedName>
     <definedName name="_ftnref1" localSheetId="0">study!$K$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -61,15 +61,6 @@
     <t>DZHW-Studienberechtigtenbefragungen</t>
   </si>
   <si>
-    <t xml:space="preserve">DZHW Panel Study of School Leavers with a Higher Education Entrance Qualification </t>
-  </si>
-  <si>
-    <t>Ausbildungswege von Studienberechtigten - Studienberechtigtenpanel 2008</t>
-  </si>
-  <si>
-    <t>In dieser seit 1976 bestehenden Untersuchungsreihe werden bundesweit und länderspezifisch repräsentative Studienberechtigtenjahrgänge in unterschiedlichen Zeitintervallen mehrfach schriftlich befragt. Ziel ist die Erhebung, Analyse und Aufbereitung von Informationen über die nachschulischen Bildungs- und Berufswege von studienberechtigten Schulabgänger(inne)n. Mit diesen Längsschnittuntersuchungen wurden für bisher fünfzehn Jahrgänge Daten u.a. zu folgenden Sachverhalten gewonnen: Studierneigung, Fach- und Ausbildungswahl, regionale Verteilung der Studienaufnahme und Studienverlauf (einschließlich Fach- und Hochschulwechsel, Studienabbruch). Zu zentralen Aspekten der nachschulischen Werdegänge werden regelmäßig die zugrunde liegenden Motive, Einstellungen und Erwartungen erhoben. Außerdem werden jeweils Fragenkomplexe zu aktuellen und bildungspolitisch relevanten Themen aufgenommen, beispielsweise die Einstellung zu Bachelor- und Masterstudiengängen oder zur Einführung von Studiengebühren. Bis zum Jahrgang 2004 wurde die jeweils erste Befragung etwa ein halbes Jahr nach Schulabgang durchgeführt; im Rahmen eines veränderten Befragungskonzepts erfolgte ab dem Jahrgang 2005 die erste Befragung noch während des letzten Schuljahres.</t>
-  </si>
-  <si>
     <t>The DZHW Panel Study of School Leavers with a Higher Education Entrance Qualification focuses on school leavers' transition from school to higher education institutions and vocational education as well as overall post-school educational and career paths, regardless of which post-school path they decided to take. The base population of the Panel Study of School Leavers with a Higher Education Entrance Qualification, carried out every two or three years since 1976, comprises people who have gained a higher education entrance qualification at a general educational or vocational school in Germany.</t>
   </si>
   <si>
@@ -151,9 +142,6 @@
     <t xml:space="preserve">German Centre for Higher Education Research and Science Studies </t>
   </si>
   <si>
-    <t>Educational paths of school leavers with a higher education entrance qualification - Panel Study of School Leavers with a Higher Education Entrance Qualification 2008</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -197,13 +185,25 @@
   </si>
   <si>
     <t>Data and methods report for the surveys on School Leavers with a Higher Education Entrance Qualification of the year 2008</t>
+  </si>
+  <si>
+    <t>Das DZHW-Studienberechtigtenpanel 2008 ist Teil der DZHW-Studien­berechtigten­befragungs­reihe, in der anhand von standardisierten Mehrfachbefragungen Informationen zu den nachschulischen Werdegängen von Schulabgänger(inne)n mit (schulischer) Hochschulzugangsberechtigung erfasst werden. In der Regel werden für jeden Studienberechtigtenjahrgang mehrere Befragungswellen zu unterschiedlichen Zeitpunkten vor und nach Erwerb der Hochschulzugangsberechtigung durchgeführt. Demnach handelt es sich um ein kombiniertes Kohorten-Panel-Design. Beim Studienberechtigtenpanel 2008 handelt es sich um die 17. Kohorte der Studienreihe mit aktuell drei Wellen. Im Unterschied zu vorangegangenen Kohorten ist die Studienphase der Kohorte 2008 durch die 2002 beschlossene Einführung von gestuften Studiengängen (Bachelor und Master) geprägt. Dieser Veränderung wurde mittels einer detaillierten Erfassung der studienrelevanten Bildungsentscheidung Rechnung getragen. Die Verschiebung des Befragungszeitpunktes im Vergleich zu früher Kohorten ermöglichte es zudem, einen größeren Anteil von Studienberechtigten nach Aufnahme eines Masterstudiums zu befragen. Auch konnten so die Auswirkungen der Entscheidung des Bundesverfassungsgerichts im Jahr 2005, sieben Bundesländern zum Zeitpunkt der ersten Befragung des Studienberechtigtenjahrgangs 2008 allgemeine Studiengebühren oder -beträge (von Beginn des Erststudiums) zu erheben, erfasst werden.</t>
+  </si>
+  <si>
+    <t>DZHW-Studienberechtigtenpanel 2008 - Ausbildungswege von Studienberechtigten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZHW Panel Study of School Leavers 2008 - Educational paths of school leavers with a higher education entrance qualification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZHW Panel Study of School Leavers </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -244,6 +244,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -288,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -308,6 +321,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -614,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,64 +698,64 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="286.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
+      <c r="H2" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -766,69 +785,69 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,16 +880,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -879,30 +898,30 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>title.de</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Spangenberg</t>
   </si>
   <si>
-    <t>Beuße</t>
-  </si>
-  <si>
     <t>Markus</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>Method Report</t>
   </si>
   <si>
-    <t>Mareike</t>
-  </si>
-  <si>
     <t>Daten- und Methodenbericht</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>Deutsches Zentrum für Hochschul- und Wissenschaftsforschung (DZHW)</t>
   </si>
   <si>
-    <t>Data and methods report for the surveys on School Leavers with a Higher Education Entrance Qualification of the year 2008</t>
-  </si>
-  <si>
     <t>Das DZHW-Studienberechtigtenpanel 2008 ist Teil der DZHW-Studien­berechtigten­befragungs­reihe, in der anhand von standardisierten Mehrfachbefragungen Informationen zu den nachschulischen Werdegängen von Schulabgänger(inne)n mit (schulischer) Hochschulzugangsberechtigung erfasst werden. In der Regel werden für jeden Studienberechtigtenjahrgang mehrere Befragungswellen zu unterschiedlichen Zeitpunkten vor und nach Erwerb der Hochschulzugangsberechtigung durchgeführt. Demnach handelt es sich um ein kombiniertes Kohorten-Panel-Design. Beim Studienberechtigtenpanel 2008 handelt es sich um die 17. Kohorte der Studienreihe mit aktuell drei Wellen. Im Unterschied zu vorangegangenen Kohorten ist die Studienphase der Kohorte 2008 durch die 2002 beschlossene Einführung von gestuften Studiengängen (Bachelor und Master) geprägt. Dieser Veränderung wurde mittels einer detaillierten Erfassung der studienrelevanten Bildungsentscheidung Rechnung getragen. Die Verschiebung des Befragungszeitpunktes im Vergleich zu früher Kohorten ermöglichte es zudem, einen größeren Anteil von Studienberechtigten nach Aufnahme eines Masterstudiums zu befragen. Auch konnten so die Auswirkungen der Entscheidung des Bundesverfassungsgerichts im Jahr 2005, sieben Bundesländern zum Zeitpunkt der ersten Befragung des Studienberechtigtenjahrgangs 2008 allgemeine Studiengebühren oder -beträge (von Beginn des Erststudiums) zu erheben, erfasst werden.</t>
   </si>
   <si>
@@ -196,27 +187,23 @@
     <t xml:space="preserve">DZHW Panel Study of School Leavers 2008 - Educational paths of school leavers with a higher education entrance qualification </t>
   </si>
   <si>
-    <t xml:space="preserve">DZHW Panel Study of School Leavers </t>
+    <t>DZHW School Leaver Survey Series</t>
+  </si>
+  <si>
+    <t>Data and methods report for the surveys on School Leavers with a Higher Education Entrance Qualification of the year 2008 (1st to 3rd survey wave). Version 1.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -238,12 +225,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -273,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -281,52 +262,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,16 +591,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="31.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="70.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -710,46 +669,46 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="286.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>55</v>
+    <row r="2" spans="1:16" ht="330" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>58</v>
+      <c r="H2" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>15</v>
@@ -758,8 +717,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7"/>
+    </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -769,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,38 +785,30 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -863,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,16 +837,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -898,30 +855,30 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>title.de</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Data and methods report for the surveys on School Leavers with a Higher Education Entrance Qualification of the year 2008 (1st to 3rd survey wave). Version 1.0.0</t>
+  </si>
+  <si>
+    <t>annotations.de</t>
+  </si>
+  <si>
+    <t>annotations.en</t>
   </si>
 </sst>
 </file>
@@ -267,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -289,6 +295,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Erklärender Text 2" xfId="1"/>
@@ -591,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,15 +618,15 @@
     <col min="14" max="14" width="19.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="16.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="20.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="2" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" style="1"/>
     <col min="20" max="20" width="13.42578125" style="1"/>
     <col min="21" max="21" width="20.28515625" style="1"/>
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,8 +675,14 @@
       <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="330" x14ac:dyDescent="0.25">
+      <c r="Q1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
@@ -717,13 +730,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9"/>
     </row>
   </sheetData>
@@ -820,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_ftn1" localSheetId="0">study!$K$5</definedName>
     <definedName name="_ftnref1" localSheetId="0">study!$K$2</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -190,13 +190,13 @@
     <t>DZHW School Leaver Survey Series</t>
   </si>
   <si>
-    <t>Data and methods report for the surveys on School Leavers with a Higher Education Entrance Qualification of the year 2008 (1st to 3rd survey wave). Version 1.0.0</t>
-  </si>
-  <si>
     <t>annotations.de</t>
   </si>
   <si>
     <t>annotations.en</t>
+  </si>
+  <si>
+    <t>Data and methods report for the surveys on School Leavers with a Higher Education Entrance Qualification of 2008. Version 1.0.0</t>
   </si>
 </sst>
 </file>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,10 +676,10 @@
         <v>18</v>
       </c>
       <c r="Q1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="330" x14ac:dyDescent="0.25">
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +888,7 @@
         <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -178,9 +178,6 @@
     <t>Deutsches Zentrum für Hochschul- und Wissenschaftsforschung (DZHW)</t>
   </si>
   <si>
-    <t>Das DZHW-Studienberechtigtenpanel 2008 ist Teil der DZHW-Studien­berechtigten­befragungs­reihe, in der anhand von standardisierten Mehrfachbefragungen Informationen zu den nachschulischen Werdegängen von Schulabgänger(inne)n mit (schulischer) Hochschulzugangsberechtigung erfasst werden. In der Regel werden für jeden Studienberechtigtenjahrgang mehrere Befragungswellen zu unterschiedlichen Zeitpunkten vor und nach Erwerb der Hochschulzugangsberechtigung durchgeführt. Demnach handelt es sich um ein kombiniertes Kohorten-Panel-Design. Beim Studienberechtigtenpanel 2008 handelt es sich um die 17. Kohorte der Studienreihe mit aktuell drei Wellen. Im Unterschied zu vorangegangenen Kohorten ist die Studienphase der Kohorte 2008 durch die 2002 beschlossene Einführung von gestuften Studiengängen (Bachelor und Master) geprägt. Dieser Veränderung wurde mittels einer detaillierten Erfassung der studienrelevanten Bildungsentscheidung Rechnung getragen. Die Verschiebung des Befragungszeitpunktes im Vergleich zu früher Kohorten ermöglichte es zudem, einen größeren Anteil von Studienberechtigten nach Aufnahme eines Masterstudiums zu befragen. Auch konnten so die Auswirkungen der Entscheidung des Bundesverfassungsgerichts im Jahr 2005, sieben Bundesländern zum Zeitpunkt der ersten Befragung des Studienberechtigtenjahrgangs 2008 allgemeine Studiengebühren oder -beträge (von Beginn des Erststudiums) zu erheben, erfasst werden.</t>
-  </si>
-  <si>
     <t>DZHW-Studienberechtigtenpanel 2008 - Ausbildungswege von Studienberechtigten</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Data and methods report for the surveys on School Leavers with a Higher Education Entrance Qualification of 2008. Version 1.0.0</t>
+  </si>
+  <si>
+    <t>Das DZHW-Studienberechtigtenpanel 2008 ist Teil der DZHW-Studien­berechtigten­befragungs­reihe, in der anhand von standardisierten Mehrfachbefragungen Informationen zu den nachschulischen Werdegängen von Schulabgänger(inne)n mit (schulischer) Hochschulzugangsberechtigung erfasst werden. In der Regel werden für jeden Studienberechtigtenjahrgang mehrere Befragungswellen zu unterschiedlichen Zeitpunkten vor und nach Erwerb der Hochschulzugangsberechtigung durchgeführt. Demnach handelt es sich um ein kombiniertes Kohorten-Panel-Design. Beim Studienberechtigtenpanel 2008 handelt es sich um die 17. Kohorte der Studienreihe mit aktuell drei Wellen. Im Unterschied zu vorangegangenen Kohorten ist die Studienphase der Kohorte 2008 durch die 2002 beschlossene Einführung von gestuften Studiengängen (Bachelor und Master) geprägt. Dieser Veränderung wurde mittels einer detaillierten Erfassung der studienrelevanten Bildungsentscheidung Rechnung getragen. Die Verschiebung des Befragungszeitpunktes im Vergleich zu früheren Kohorten ermöglichte es zudem, einen größeren Anteil von Studienberechtigten nach Aufnahme eines Masterstudiums zu befragen. Auch konnten so die Auswirkungen der Entscheidung des Bundesverfassungsgerichts im Jahr 2005, sieben Bundesländern zum Zeitpunkt der ersten Befragung des Studienberechtigtenjahrgangs 2008 allgemeine Studiengebühren oder -beträge (von Beginn des Erststudiums) zu erheben, erfasst werden.</t>
   </si>
 </sst>
 </file>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,21 +676,21 @@
         <v>18</v>
       </c>
       <c r="Q1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -705,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>50</v>
@@ -833,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -888,7 +888,7 @@
         <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_ftn1" localSheetId="0">study!$K$5</definedName>
     <definedName name="_ftnref1" localSheetId="0">study!$K$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -61,9 +61,6 @@
     <t>DZHW-Studienberechtigtenbefragungen</t>
   </si>
   <si>
-    <t>The DZHW Panel Study of School Leavers with a Higher Education Entrance Qualification focuses on school leavers' transition from school to higher education institutions and vocational education as well as overall post-school educational and career paths, regardless of which post-school path they decided to take. The base population of the Panel Study of School Leavers with a Higher Education Entrance Qualification, carried out every two or three years since 1976, comprises people who have gained a higher education entrance qualification at a general educational or vocational school in Germany.</t>
-  </si>
-  <si>
     <t>surveyDesign.de</t>
   </si>
   <si>
@@ -197,13 +194,16 @@
   </si>
   <si>
     <t>Das DZHW-Studienberechtigtenpanel 2008 ist Teil der DZHW-Studien­berechtigten­befragungs­reihe, in der anhand von standardisierten Mehrfachbefragungen Informationen zu den nachschulischen Werdegängen von Schulabgänger(inne)n mit (schulischer) Hochschulzugangsberechtigung erfasst werden. In der Regel werden für jeden Studienberechtigtenjahrgang mehrere Befragungswellen zu unterschiedlichen Zeitpunkten vor und nach Erwerb der Hochschulzugangsberechtigung durchgeführt. Demnach handelt es sich um ein kombiniertes Kohorten-Panel-Design. Beim Studienberechtigtenpanel 2008 handelt es sich um die 17. Kohorte der Studienreihe mit aktuell drei Wellen. Im Unterschied zu vorangegangenen Kohorten ist die Studienphase der Kohorte 2008 durch die 2002 beschlossene Einführung von gestuften Studiengängen (Bachelor und Master) geprägt. Dieser Veränderung wurde mittels einer detaillierten Erfassung der studienrelevanten Bildungsentscheidung Rechnung getragen. Die Verschiebung des Befragungszeitpunktes im Vergleich zu früheren Kohorten ermöglichte es zudem, einen größeren Anteil von Studienberechtigten nach Aufnahme eines Masterstudiums zu befragen. Auch konnten so die Auswirkungen der Entscheidung des Bundesverfassungsgerichts im Jahr 2005, sieben Bundesländern zum Zeitpunkt der ersten Befragung des Studienberechtigtenjahrgangs 2008 allgemeine Studiengebühren oder -beträge (von Beginn des Erststudiums) zu erheben, erfasst werden.</t>
+  </si>
+  <si>
+    <t>The DZHW Panel Study of School Leavers 2008 is part of the School Leavers panel series of the DZHW, which records information on post-school educational and career paths of school leavers with a higher education entrance qualification. For every graduate year (cohort) a series of survey waves are carried out with each wave occurring at a different time before and after graduation, implemented as a combined cohort-panel-design. The Panel Study of School Leavers 2008 comprises the 17th cohort of the survey series with three survey waves. In contrast to preceding cohorts, the study phase of the 2008 cohort is defined by the implementation of the two-cycle degree programme (bachelor’s and master’s degree). This change has been taken into account through a detailed recording of educational choices relevant for the course of study. The time shift in the survey implementation compared to previous cohorts made it possible to interview a higher proportion of students pursuing a master’s degree. The consequences of the decision of the Federal Supreme Court in 2005, which facilitated charging general tuition fees from the beginning of the first degree in seven federal states, could also be registered during the first survey wave of the 2008 cohort.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -245,6 +245,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -273,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -296,6 +303,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Erklärender Text 2" xfId="1"/>
@@ -600,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,70 +674,70 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="Q1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="330" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" ht="345" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -763,61 +773,61 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -850,16 +860,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -868,30 +878,30 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
         <v>45</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -181,9 +181,6 @@
     <t xml:space="preserve">DZHW Panel Study of School Leavers 2008 - Educational paths of school leavers with a higher education entrance qualification </t>
   </si>
   <si>
-    <t>DZHW School Leaver Survey Series</t>
-  </si>
-  <si>
     <t>annotations.de</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>The DZHW Panel Study of School Leavers 2008 is part of the School Leavers panel series of the DZHW, which records information on post-school educational and career paths of school leavers with a higher education entrance qualification. For every graduate year (cohort) a series of survey waves are carried out with each wave occurring at a different time before and after graduation, implemented as a combined cohort-panel-design. The Panel Study of School Leavers 2008 comprises the 17th cohort of the survey series with three survey waves. In contrast to preceding cohorts, the study phase of the 2008 cohort is defined by the implementation of the two-cycle degree programme (bachelor’s and master’s degree). This change has been taken into account through a detailed recording of educational choices relevant for the course of study. The time shift in the survey implementation compared to previous cohorts made it possible to interview a higher proportion of students pursuing a master’s degree. The consequences of the decision of the Federal Supreme Court in 2005, which facilitated charging general tuition fees from the beginning of the first degree in seven federal states, could also be registered during the first survey wave of the 2008 cohort.</t>
+  </si>
+  <si>
+    <t>DZHW Survey Series of School Leavers 2008</t>
   </si>
 </sst>
 </file>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,10 +686,10 @@
         <v>17</v>
       </c>
       <c r="Q1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="345" x14ac:dyDescent="0.25">
@@ -700,10 +700,10 @@
         <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>50</v>
@@ -715,7 +715,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>49</v>
@@ -898,7 +898,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>title.de</t>
   </si>
@@ -197,6 +197,27 @@
   </si>
   <si>
     <t>DZHW Survey Series of School Leavers 2008</t>
+  </si>
+  <si>
+    <t>gsl2008_Overview_en.pdf</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>DZHW Panel Study of School Leavers 2008</t>
+  </si>
+  <si>
+    <t>Studienübersicht</t>
+  </si>
+  <si>
+    <t>Study Overview </t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -610,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -843,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,6 +925,29 @@
         <v>45</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" s="4"/>
     </row>

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -12,15 +12,15 @@
     <sheet name="attachments" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">study!$K$5</definedName>
-    <definedName name="_ftnref1" localSheetId="0">study!$K$2</definedName>
+    <definedName name="_ftn1" localSheetId="0">study!#REF!</definedName>
+    <definedName name="_ftnref1" localSheetId="0">study!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>title.de</t>
   </si>
@@ -52,12 +52,6 @@
     <t>sponsor.en</t>
   </si>
   <si>
-    <t>citationHint.de</t>
-  </si>
-  <si>
-    <t>citationHint.en</t>
-  </si>
-  <si>
     <t>DZHW-Studienberechtigtenbefragungen</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
   </si>
   <si>
     <t>Available</t>
-  </si>
-  <si>
-    <t>Heine, C., Quast, H., Spangenberg, H., Lörz, M., Scheller, P. &amp; Willich, J. (2014). DZHW-Studienberechtigtenpanel 2008. Aufbereitet durch Daniel, A., Hoffstätter, U., Huß, B. &amp; Scheller, P., doi: 10.21249/DZHW:gsl2008:1.0.0, DATENSATZNAME, released 2017. Hannover: FDZ-DZHW.</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Ministry of Education and Reserch </t>
@@ -629,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,20 +635,19 @@
     <col min="6" max="7" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
     <col min="9" max="10" width="13.140625" style="1"/>
-    <col min="11" max="12" width="64.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="1"/>
-    <col min="20" max="20" width="13.42578125" style="1"/>
-    <col min="21" max="21" width="20.28515625" style="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="18.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="1"/>
+    <col min="18" max="18" width="13.42578125" style="1"/>
+    <col min="19" max="19" width="20.28515625" style="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,85 +679,75 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="345" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="345" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9"/>
     </row>
   </sheetData>
@@ -794,61 +774,61 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -881,16 +861,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -899,53 +879,53 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>62</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -40,12 +40,6 @@
     <t>institution.en</t>
   </si>
   <si>
-    <t>surveySeries.de</t>
-  </si>
-  <si>
-    <t>surveySeries.en</t>
-  </si>
-  <si>
     <t>sponsor.de</t>
   </si>
   <si>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>studySeries.de</t>
+  </si>
+  <si>
+    <t>studySeries.en</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,78 +667,78 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="345" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -774,61 +774,61 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -861,16 +861,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -879,53 +879,53 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" t="s">
         <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/study/study.xlsx
+++ b/data/study/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>title.de</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>studySeries.en</t>
+  </si>
+  <si>
+    <t>gsl2008_MethodReport_en.pdf</t>
+  </si>
+  <si>
+    <t>DZHW Panel Study of School Leavers with a Higher Education Entrance Qualification 2008</t>
   </si>
 </sst>
 </file>
@@ -622,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -842,10 +848,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,31 +911,54 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="4"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
